--- a/OutputFiles/TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx
+++ b/OutputFiles/TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx
@@ -900,7 +900,7 @@
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\Users\radhakrishnang2\Desktop\Commons_Automation\OutputFiles\TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx</t>
+    <t>C:\Small_SetDebug\DataCommons_Automation\OutputFiles\TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>
